--- a/data/trans_bre/P1426-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1426-Dificultad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>0.7330840379925478</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9291505438721072</v>
+        <v>0.9291505438721093</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.8112676829541773</v>
@@ -627,7 +627,7 @@
         <v>0.4895190173927174</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1735462596789368</v>
+        <v>0.1735462596789372</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1757835727494933</v>
+        <v>-0.1254746291897648</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4291859177519892</v>
+        <v>-0.3761772928738694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.758049647572809</v>
+        <v>-1.527528489921595</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1552879114910653</v>
+        <v>-0.1210083305036557</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2341131083049891</v>
+        <v>-0.2425742124320615</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2530023113796747</v>
+        <v>-0.2314746723141354</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.241799845946575</v>
+        <v>2.162621811424871</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.795596818484991</v>
+        <v>1.881650495908522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.00714344484497</v>
+        <v>3.218211338892849</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3.444100333419998</v>
+        <v>3.240092629744068</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.819611344426954</v>
+        <v>1.736583105212123</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7720235154938192</v>
+        <v>0.8100981865298124</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>0.3432361639715792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.06815181138747424</v>
+        <v>-0.06815181138747423</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.650513873610811</v>
+        <v>-1.699412638028625</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6653275067746988</v>
+        <v>-0.6572084558413466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.008170590957648</v>
+        <v>-1.841454874047706</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5693955018293977</v>
+        <v>-0.5643767030577159</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2736114307433205</v>
+        <v>-0.288157065532064</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3463863601276475</v>
+        <v>-0.296324014855796</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9579686873532864</v>
+        <v>0.8966801100840459</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.976778379172705</v>
+        <v>2.016007754709571</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.158608616452577</v>
+        <v>1.28054625881264</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7115801115920474</v>
+        <v>0.7291105833912538</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.594187664417659</v>
+        <v>1.625540670805296</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2876951897133814</v>
+        <v>0.311957452384874</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.747504827503834</v>
+        <v>-1.700292892408847</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3713175060121962</v>
+        <v>-0.2391954093264665</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.663909423630438</v>
+        <v>-1.733315644436547</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.7522035912377171</v>
+        <v>-0.7495632854918317</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2877589572588208</v>
+        <v>-0.2392235928134337</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3039924278203806</v>
+        <v>-0.3165132118203301</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5575564097675335</v>
+        <v>0.6527941898611257</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.187430679369623</v>
+        <v>2.212443664095633</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.226840197038487</v>
+        <v>1.314408588074396</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6215472390077751</v>
+        <v>0.8282161693162061</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.397870041634718</v>
+        <v>4.433566266308999</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3301216005255296</v>
+        <v>0.342959548355804</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1657896980515254</v>
+        <v>-0.07371647526631503</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.262011813950588</v>
+        <v>-2.48833643193031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.986429625800543</v>
+        <v>-1.882504543940875</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.247747703041152</v>
+        <v>-0.2584314229395032</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3909936196730154</v>
+        <v>-0.3820162873087717</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.327623351570182</v>
+        <v>3.485335724843836</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7155575356680633</v>
+        <v>0.5808439266662933</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.223344126000894</v>
+        <v>1.081593737505069</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8.419480444823316</v>
+        <v>8.336830254616412</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.88930443073699</v>
+        <v>1.439269442227511</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3900182748627972</v>
+        <v>0.3412302447179503</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.5624711553771083</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.04170621991050824</v>
+        <v>-0.04170621991050755</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.1818002650410109</v>
@@ -955,7 +955,7 @@
         <v>0.3862375414095286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.008881736006553212</v>
+        <v>-0.008881736006553065</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3997430016342333</v>
+        <v>-0.2994131372184042</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.0364749226364971</v>
+        <v>-0.03649078661810957</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9511953577742203</v>
+        <v>-0.8610660371737137</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2341483533113213</v>
+        <v>-0.1696845028134185</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.03187316030833291</v>
+        <v>-0.03170820755051384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1839212615876139</v>
+        <v>-0.1675218943366991</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9046207273311634</v>
+        <v>0.9234605024278277</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.205762964768271</v>
+        <v>1.278170576560806</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7622452328049724</v>
+        <v>0.7865987121333811</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.7068328678842399</v>
+        <v>0.7628811418671644</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.020623880056027</v>
+        <v>1.060437479161638</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1814755572120132</v>
+        <v>0.1870685665959682</v>
       </c>
     </row>
     <row r="19">
